--- a/data/Seminar_Program.xlsx
+++ b/data/Seminar_Program.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -52,386 +52,53 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Лектор</t>
-    </r>
+    <t>17 апреля</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>26 марта</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15:00-17.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>О программе R. Простые функции в R. Класс (типы) данных. Загрузка пакетов</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Анна</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>29 марта</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Работа с таблицами. Сохранение/Загрузка созданной в R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>таблицы</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2 апреля</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Работа с базовой графикой (plot, hist, point)</t>
-    </r>
-  </si>
-  <si>
-    <t>5 апреля (возможен перенос даты!)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Работа с графикой ggplot2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Вадим</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9 апреля</t>
-    </r>
+    <t>10.00 - 14.00</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Работа с данными: сортировать (ordered), переименовать столбцы и строки, исправить ошибки в строках (str_replace, str_extract из пакета stringr), убрать пропущенные данные (na.omit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>и complete.cases ), выбросы и тд.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>Основы языка статистического программирования R для использования в эколого-биологических исследованиях</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Анна</t>
-    </r>
+    <t>23 апреля</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12 апреля</t>
-    </r>
+    <t xml:space="preserve">«Опрятные данные и организация простейших баз данных в эколого-биологических проектах и исследованиях учащихся. Грамматика графиков и принципы рациональной визуализации данных </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Встроенные</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">функции: subset, gep, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>aggregate,Ifelse. Фильтр данных, исправление ошибок в строках, агрегировать данные по заданным параметрам, логические операции «если, то»</t>
-    </r>
+    <t>15 мая</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>16 апреля</t>
-    </r>
+    <t>Графическая визуализация при решении задач в  эколого-биологических исследованиях.</t>
   </si>
   <si>
-    <t xml:space="preserve">Пакеты: dplyr, tidyr. Основные функции: поменять столбцы местами, выбрать определенные столбцы по названиям, задать фильтр для данных, разделить/соединить данные по заданным знакам, сделать расчеты по формулам, поворот таблиц </t>
+    <t>22 мая</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>19 апреля</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">R Markdown: создание таксовых документов, которые включают в себя текст, код, картинки и тд. Нитринг в различные документы (HTML, Word, PDF). </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Вадим</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>23 апреля</t>
-    </r>
-  </si>
-  <si>
-    <t>R Markdown. Содание таблиц и генерация документов в формате Word</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>26 апреля</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Дополнительное занятие (если будет необходимо)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3 мая</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Защита проектов</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Анна/Вадим</t>
-    </r>
+    <t>Создание презентаций методами литературного программирования на языке RMarkdown. Обсуждение тем проектов.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="mmm\.yy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +117,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -923,137 +602,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,10 +742,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1602,20 +1293,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="36.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="52.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="40.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1625,159 +1317,91 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="28.8" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="43.2" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="28.8" spans="1:4">
       <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D5" s="8"/>
     </row>
-    <row r="5" ht="28.8" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
-    <row r="6" ht="86.4" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
-    <row r="7" ht="86.4" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
-    <row r="8" ht="100.8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
-    <row r="9" ht="72" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
-    <row r="10" ht="28.8" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" ht="28.8" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="28.8" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
